--- a/biology/Médecine/Edwin_Klebs/Edwin_Klebs.xlsx
+++ b/biology/Médecine/Edwin_Klebs/Edwin_Klebs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Albrecht Edwin Klebs (6 février 1834 à Königsberg - 23 octobre 1913 (à 79 ans) à Berne) est un médecin allemand, découvreur en 1883 du bacille de la diphtérie dit de Löffler-Klebs et un des principaux théoriciens de l'hermaphrodisme. Il est le père de Arnold C. Klebs également biologiste.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klebs étudie la médecine à l'université de Königsberg à partir de 1852 et à l'université de Wurtzbourg à partir de 1855, puis à l'université d'Iéna et à l'université Frédéric-Guillaume de Berlin. En 1854, il devient - comme son frère Oskar - membre de la Burschenschaft Germania Königsberg (de). En 1856, il obtient un doctorat en médecine à Berlin sous la direction de son professeur de Wurzbourg, Rudolf Virchow, qui a entre-temps travaillé à Berlin[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klebs étudie la médecine à l'université de Königsberg à partir de 1852 et à l'université de Wurtzbourg à partir de 1855, puis à l'université d'Iéna et à l'université Frédéric-Guillaume de Berlin. En 1854, il devient - comme son frère Oskar - membre de la Burschenschaft Germania Königsberg (de). En 1856, il obtient un doctorat en médecine à Berlin sous la direction de son professeur de Wurzbourg, Rudolf Virchow, qui a entre-temps travaillé à Berlin,.
 Il est l’assistant de Rudolph Ludwig Karl Virchow (1821-1902) à l’institut de pathologie de Berlin de 1861 à 1866. Il est principalement connu pour son œuvre sur les maladies infectieuses. En 1883, il identifie la bactérie responsable de la diphtérie, Corynebacterium diphtheriae. Le genre de bactérie Klebsiella lui a été dédié.
 </t>
         </is>
